--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakethompson/Documents/GIT/websites/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orcun Gumus\OneDrive - McKinsey &amp; Company\Desktop\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8879E07-D9D5-EA4C-BA4D-32353558D075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD06E3-4985-4D85-83E7-2EC54A5C5148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18780" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>in_resume</t>
   </si>
@@ -53,90 +53,12 @@
     <t>description_3</t>
   </si>
   <si>
-    <t>Graduate Research Assistant</t>
-  </si>
-  <si>
-    <t>Ph.D., Educational Psychology</t>
-  </si>
-  <si>
     <t>University of Kansas</t>
   </si>
   <si>
-    <t>Lawrence, KS</t>
-  </si>
-  <si>
-    <t>Dissertation: "Evaluating Model Estimation Processes for Diagnostic Classification Models"</t>
-  </si>
-  <si>
-    <t>Emphasis: Research, Evaluation, Measurement, and Statistics</t>
-  </si>
-  <si>
-    <t>B.S., Behavioral Neuroscience</t>
-  </si>
-  <si>
-    <t>Honors Thesis: "Dissociating Cognitive and Affective Empathy in Unipolar Depression"</t>
-  </si>
-  <si>
-    <t>Minor: Social and Behavioral Sciences Methodology</t>
-  </si>
-  <si>
-    <t>Senior Psychometrician</t>
-  </si>
-  <si>
     <t>org</t>
   </si>
   <si>
-    <t>Accessible Teaching, Learning, and Assessment Systems (ATLAS)</t>
-  </si>
-  <si>
-    <t>Psychometrician</t>
-  </si>
-  <si>
-    <t>Assistant Psychometrician</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>Advisor: Neal Kingston</t>
-  </si>
-  <si>
-    <t>Develop internal and external R packages</t>
-  </si>
-  <si>
-    <t>Lead research program on psychometric modeling, including presentation of findings to a variety of audiences</t>
-  </si>
-  <si>
-    <t>Member of  ATLAS psychometric team working across projects including [Dynamic Learning Maps](https://dynamiclearningmaps.org) and [Innovations in Science Map, Assessment and Report Technologies](https://ismart.works)</t>
-  </si>
-  <si>
-    <t>Statistical Consultant</t>
-  </si>
-  <si>
-    <t>Jake Thompson Consulting</t>
-  </si>
-  <si>
-    <t>Kansas City, KS</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>Provide statistical and methodological consultations</t>
-  </si>
-  <si>
-    <t>Selected projects include: analyzing data for research labs at the University of Kansas Medical Center; providing recommendations for the implementation of evidence centered design to the National Council of State Boards of Nursing; estimating growth projecions for JNA Advertising.</t>
-  </si>
-  <si>
     <t>award</t>
   </si>
   <si>
@@ -152,48 +74,15 @@
     <t>display</t>
   </si>
   <si>
-    <t>Educational Measurement: Issues and Practice Cover Showcase Winner</t>
-  </si>
-  <si>
     <t>National Council on Measurement in Education</t>
   </si>
   <si>
-    <t>Educational Measurement: Issues and Practice Cover Showcase Top 10</t>
-  </si>
-  <si>
-    <t>Chancellor's Doctoral Fellowship</t>
-  </si>
-  <si>
-    <t>University of Kansas Department of Psychology Best Honors Thesis</t>
-  </si>
-  <si>
     <t>Department of Psychology, University of Kansas</t>
   </si>
   <si>
-    <t>Outstanding Research by an Undergraduate in Psychology</t>
-  </si>
-  <si>
-    <t>Dane G. Hansen Leader of Tomorrow Scholarship</t>
-  </si>
-  <si>
     <t>Dane G. Hansen Foundation</t>
   </si>
   <si>
-    <t>Summerfield Scholarship</t>
-  </si>
-  <si>
-    <t>Kansas Governor's Scholar</t>
-  </si>
-  <si>
-    <t>State of Kansas</t>
-  </si>
-  <si>
-    <t>Kansas Honor's Scholar</t>
-  </si>
-  <si>
-    <t>Advisor: Evangelia G. Chrysikou</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -233,22 +122,164 @@
     <t>pi</t>
   </si>
   <si>
-    <t>Meagan Karvonen</t>
-  </si>
-  <si>
-    <t>USED, Office of Elementary and Secondary Education</t>
-  </si>
-  <si>
     <t>Improving Software and Methods for Estimating and Evaluating Diagnostic Classification Models</t>
   </si>
   <si>
-    <t>USED, Institute of Education Sciences</t>
-  </si>
-  <si>
     <t>description_4</t>
   </si>
   <si>
-    <t>Highest Distinction, with University and Departmental Honors</t>
+    <t>M.Sc., Data Science</t>
+  </si>
+  <si>
+    <t>B.Sc., Computer Science</t>
+  </si>
+  <si>
+    <t>Bilkent University</t>
+  </si>
+  <si>
+    <t>Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t>Ankara, Turkey</t>
+  </si>
+  <si>
+    <t>Semester Abroad, Computer Science</t>
+  </si>
+  <si>
+    <t>High School, Science</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>CGPA: 5.11 / 6</t>
+  </si>
+  <si>
+    <t>Granted /w TEV International Scholarship</t>
+  </si>
+  <si>
+    <t>Granted /w full tuition waiver</t>
+  </si>
+  <si>
+    <t>Ranked top 5%</t>
+  </si>
+  <si>
+    <t>CGPA: 3.72 / 4</t>
+  </si>
+  <si>
+    <t>GPA: 5.14/6</t>
+  </si>
+  <si>
+    <t>Granted /w SEMP Scholarship</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Mckinsey &amp; Company</t>
+  </si>
+  <si>
+    <t>Somed Analytics</t>
+  </si>
+  <si>
+    <t>Co-founder</t>
+  </si>
+  <si>
+    <t>2019-6</t>
+  </si>
+  <si>
+    <t>2015-6</t>
+  </si>
+  <si>
+    <t>2017-9</t>
+  </si>
+  <si>
+    <t>2016-6</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Summer Analyst</t>
+  </si>
+  <si>
+    <t>2019-9</t>
+  </si>
+  <si>
+    <t>2020-6</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>E2E implementation of a product that is used in multiple clients in petrochemical industry, that includes modelling steam and electricity components in petrochemical plants using bayesian inference &amp; causal inferance and dynamic optimization of steam and power generation under time-varying power load using mixed integer programming</t>
+  </si>
+  <si>
+    <t>Dean's High Honor Roll (8 Semester), Bilkent University</t>
+  </si>
+  <si>
+    <t>National Entrance Exams, ranked among the top 0.1% among 1.8 million candidates</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Leading an efford in a major Azarbaijan bank for implementation of probability of default models and limit optimization strategies on street customers scorecards</t>
+  </si>
+  <si>
+    <t>Galatasaray High School</t>
+  </si>
+  <si>
+    <t>Swiss Federal Institute of Technology in Lausanne</t>
+  </si>
+  <si>
+    <t>High accuracy electricity price forecasts and imbalance position optimization for major electricity supliers in Turkey using  bayesian probabilistic programming with state space timeseries modelling on electricity demand and capacity</t>
+  </si>
+  <si>
+    <t>Istanbul Earthquake Datathon, second place winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Smart Agri Hubs Life Science Hackathon, third place winner </t>
+  </si>
+  <si>
+    <t>B/S/H/ Hausgerate Big Data Hackathon, first place winner</t>
+  </si>
+  <si>
+    <t>Mostratec, Brazilian Science Fair, gold medal recipient in computer science category</t>
+  </si>
+  <si>
+    <t>Infomatrix, International Computer Project Competition, bronze medal recipient in computer science category</t>
+  </si>
+  <si>
+    <t>Scientific and Technological Research Council of Turkey, first place winner in computer science category</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Wageningen University &amp; Research</t>
+  </si>
+  <si>
+    <t>Wageningen, Netherlands</t>
+  </si>
+  <si>
+    <t>2017-6</t>
+  </si>
+  <si>
+    <t>Data Science Internships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAZI AI Systems &amp; Teradata Corporation </t>
+  </si>
+  <si>
+    <t>A consulting start-up to help brands in their marketting strategies using network analysis on Instagram data for targetted ads</t>
+  </si>
+  <si>
+    <t>Real-time optimization of nonlinear, complex and black-box
+greenhouse management system using reinforcement learning</t>
   </si>
 </sst>
 </file>
@@ -258,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +423,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="33">
@@ -735,13 +773,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1097,21 +1136,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="6" max="9" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1137,101 +1176,139 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E3">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>2015</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>2007</v>
+      </c>
+      <c r="E5">
+        <v>2012</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="43.33203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="43.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1257,112 +1334,186 @@
       <c r="J1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,32 +1524,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7310B-209B-5F48-96E7-648531B2B600}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1407,80 +1558,46 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2">
-        <v>2021</v>
-      </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="3">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>2016</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>2020</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="3">
-        <v>225000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,41 +1618,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F508133-2F1C-F74C-9A6E-5E2385798E5D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1544,143 +1661,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2012</v>
+      </c>
+      <c r="D4">
         <v>2017</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>2016</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2014</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>2010</v>
-      </c>
-      <c r="D8">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2010</v>
-      </c>
-      <c r="D9">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>2010</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2009</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1692,34 +1776,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orcun Gumus\OneDrive - McKinsey &amp; Company\Desktop\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD06E3-4985-4D85-83E7-2EC54A5C5148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1F94A-DAF5-46CB-8F41-A57574060DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>in_resume</t>
   </si>
@@ -227,18 +227,12 @@
     <t>month</t>
   </si>
   <si>
-    <t>Leading an efford in a major Azarbaijan bank for implementation of probability of default models and limit optimization strategies on street customers scorecards</t>
-  </si>
-  <si>
     <t>Galatasaray High School</t>
   </si>
   <si>
     <t>Swiss Federal Institute of Technology in Lausanne</t>
   </si>
   <si>
-    <t>High accuracy electricity price forecasts and imbalance position optimization for major electricity supliers in Turkey using  bayesian probabilistic programming with state space timeseries modelling on electricity demand and capacity</t>
-  </si>
-  <si>
     <t>Istanbul Earthquake Datathon, second place winner</t>
   </si>
   <si>
@@ -266,20 +260,23 @@
     <t>Wageningen, Netherlands</t>
   </si>
   <si>
-    <t>2017-6</t>
-  </si>
-  <si>
     <t>Data Science Internships</t>
   </si>
   <si>
     <t xml:space="preserve">TAZI AI Systems &amp; Teradata Corporation </t>
-  </si>
-  <si>
-    <t>A consulting start-up to help brands in their marketting strategies using network analysis on Instagram data for targetted ads</t>
   </si>
   <si>
     <t>Real-time optimization of nonlinear, complex and black-box
 greenhouse management system using reinforcement learning</t>
+  </si>
+  <si>
+    <t>High accuracy electricity price forecasts in a joint efford with Quantumblack and imbalance position optimization for major electricity supliers in Turkey using bayesian probabilistic programming with state space timeseries modelling on electricity demand and capacity</t>
+  </si>
+  <si>
+    <t>Build ML algorithms that helps brands in marketting strategies using network analysis on Instagram data for targetted ads</t>
+  </si>
+  <si>
+    <t>Lead a team in a major Azarbaijan bank for implementation of a probability of default model and limit optimization strategies on street customers</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1184,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1242,7 +1239,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1265,7 +1262,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1290,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1354,14 +1351,14 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
+      <c r="I2" t="s">
+        <v>81</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1427,13 +1424,13 @@
     </row>
     <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -1442,7 +1439,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -1465,13 +1462,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1485,19 +1482,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1621,7 +1618,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1646,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1663,7 +1660,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1736,7 +1733,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
